--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4748176666666666</v>
+        <v>0.8166753333333334</v>
       </c>
       <c r="H2">
-        <v>1.424453</v>
+        <v>2.450026</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.35034833333334</v>
+        <v>33.16156633333333</v>
       </c>
       <c r="N2">
-        <v>100.051045</v>
+        <v>99.48469900000001</v>
       </c>
       <c r="O2">
-        <v>0.2287589433580892</v>
+        <v>0.2666406279966088</v>
       </c>
       <c r="P2">
-        <v>0.2287589433580892</v>
+        <v>0.2666406279966088</v>
       </c>
       <c r="Q2">
-        <v>15.83533457815389</v>
+        <v>27.08223323913045</v>
       </c>
       <c r="R2">
-        <v>142.518011203385</v>
+        <v>243.7400991521741</v>
       </c>
       <c r="S2">
-        <v>0.2287589433580892</v>
+        <v>0.2666406279966088</v>
       </c>
       <c r="T2">
-        <v>0.2287589433580892</v>
+        <v>0.2666406279966088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4748176666666666</v>
+        <v>0.8166753333333334</v>
       </c>
       <c r="H3">
-        <v>1.424453</v>
+        <v>2.450026</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>77.03389199999999</v>
       </c>
       <c r="O3">
-        <v>0.176132010781908</v>
+        <v>0.2064675829184841</v>
       </c>
       <c r="P3">
-        <v>0.176132010781908</v>
+        <v>0.2064675829184841</v>
       </c>
       <c r="Q3">
-        <v>12.19235095123067</v>
+        <v>20.97055980902133</v>
       </c>
       <c r="R3">
-        <v>109.731158561076</v>
+        <v>188.735038281192</v>
       </c>
       <c r="S3">
-        <v>0.176132010781908</v>
+        <v>0.2064675829184841</v>
       </c>
       <c r="T3">
-        <v>0.176132010781908</v>
+        <v>0.2064675829184841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4748176666666666</v>
+        <v>0.8166753333333334</v>
       </c>
       <c r="H4">
-        <v>1.424453</v>
+        <v>2.450026</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.20708666666667</v>
+        <v>15.57007066666667</v>
       </c>
       <c r="N4">
-        <v>39.62126000000001</v>
+        <v>46.710212</v>
       </c>
       <c r="O4">
-        <v>0.09059093357911582</v>
+        <v>0.1251935261073135</v>
       </c>
       <c r="P4">
-        <v>0.09059093357911582</v>
+        <v>0.1251935261073135</v>
       </c>
       <c r="Q4">
-        <v>6.270958074531112</v>
+        <v>12.71569265172356</v>
       </c>
       <c r="R4">
-        <v>56.43862267078001</v>
+        <v>114.441233865512</v>
       </c>
       <c r="S4">
-        <v>0.09059093357911582</v>
+        <v>0.1251935261073135</v>
       </c>
       <c r="T4">
-        <v>0.09059093357911582</v>
+        <v>0.1251935261073135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4748176666666666</v>
+        <v>0.8166753333333334</v>
       </c>
       <c r="H5">
-        <v>1.424453</v>
+        <v>2.450026</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.55277366666667</v>
+        <v>49.95841666666666</v>
       </c>
       <c r="N5">
-        <v>220.658321</v>
+        <v>149.87525</v>
       </c>
       <c r="O5">
-        <v>0.5045181122808869</v>
+        <v>0.4016982629775935</v>
       </c>
       <c r="P5">
-        <v>0.5045181122808869</v>
+        <v>0.4016982629775935</v>
       </c>
       <c r="Q5">
-        <v>34.92415636926811</v>
+        <v>40.79980658405556</v>
       </c>
       <c r="R5">
-        <v>314.317407323413</v>
+        <v>367.1982592565</v>
       </c>
       <c r="S5">
-        <v>0.5045181122808869</v>
+        <v>0.4016982629775935</v>
       </c>
       <c r="T5">
-        <v>0.5045181122808869</v>
+        <v>0.4016982629775935</v>
       </c>
     </row>
   </sheetData>
